--- a/backend/projects/project-a-123-sunset-blvd/data/04_FINANCE_INSURANCE/Loan_Drawdown_Schedule.xlsx
+++ b/backend/projects/project-a-123-sunset-blvd/data/04_FINANCE_INSURANCE/Loan_Drawdown_Schedule.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Drawdowns" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Drawdowns" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,25 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,7 +559,6 @@
       <c r="D5" t="n">
         <v>0</v>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
         <v>200000</v>
       </c>
@@ -600,7 +580,6 @@
       <c r="D6" t="n">
         <v>0</v>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
         <v>200000</v>
       </c>
@@ -622,9 +601,728 @@
       <c r="D7" t="n">
         <v>0</v>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="n">
         <v>200000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Item 7</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>28322</v>
+      </c>
+      <c r="D8" t="n">
+        <v>17329</v>
+      </c>
+      <c r="E8" t="n">
+        <v>36262</v>
+      </c>
+      <c r="F8" t="n">
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Item 8</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>47343</v>
+      </c>
+      <c r="D9" t="n">
+        <v>46865</v>
+      </c>
+      <c r="E9" t="n">
+        <v>45256</v>
+      </c>
+      <c r="F9" t="n">
+        <v>39680</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Item 9</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>16398</v>
+      </c>
+      <c r="D10" t="n">
+        <v>43647</v>
+      </c>
+      <c r="E10" t="n">
+        <v>48046</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14464</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Item 10</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>1353</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9126</v>
+      </c>
+      <c r="E11" t="n">
+        <v>47590</v>
+      </c>
+      <c r="F11" t="n">
+        <v>10009</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Item 11</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>9534</v>
+      </c>
+      <c r="D12" t="n">
+        <v>24134</v>
+      </c>
+      <c r="E12" t="n">
+        <v>14021</v>
+      </c>
+      <c r="F12" t="n">
+        <v>48578</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Item 12</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>20654</v>
+      </c>
+      <c r="D13" t="n">
+        <v>36679</v>
+      </c>
+      <c r="E13" t="n">
+        <v>21689</v>
+      </c>
+      <c r="F13" t="n">
+        <v>25067</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Item 13</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>13296</v>
+      </c>
+      <c r="D14" t="n">
+        <v>31177</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1229</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4633</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Item 14</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>48337</v>
+      </c>
+      <c r="D15" t="n">
+        <v>45801</v>
+      </c>
+      <c r="E15" t="n">
+        <v>47187</v>
+      </c>
+      <c r="F15" t="n">
+        <v>12454</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Item 15</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>13313</v>
+      </c>
+      <c r="D16" t="n">
+        <v>49368</v>
+      </c>
+      <c r="E16" t="n">
+        <v>11523</v>
+      </c>
+      <c r="F16" t="n">
+        <v>25053</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Item 16</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1530</v>
+      </c>
+      <c r="D17" t="n">
+        <v>38674</v>
+      </c>
+      <c r="E17" t="n">
+        <v>11797</v>
+      </c>
+      <c r="F17" t="n">
+        <v>36781</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Item 17</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>13745</v>
+      </c>
+      <c r="D18" t="n">
+        <v>26036</v>
+      </c>
+      <c r="E18" t="n">
+        <v>6058</v>
+      </c>
+      <c r="F18" t="n">
+        <v>24239</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Item 18</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>15974</v>
+      </c>
+      <c r="D19" t="n">
+        <v>47740</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8499</v>
+      </c>
+      <c r="F19" t="n">
+        <v>19794</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Item 19</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>38801</v>
+      </c>
+      <c r="D20" t="n">
+        <v>43432</v>
+      </c>
+      <c r="E20" t="n">
+        <v>25877</v>
+      </c>
+      <c r="F20" t="n">
+        <v>35472</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Item 20</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>3475</v>
+      </c>
+      <c r="D21" t="n">
+        <v>31478</v>
+      </c>
+      <c r="E21" t="n">
+        <v>24821</v>
+      </c>
+      <c r="F21" t="n">
+        <v>21220</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Item 21</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>42732</v>
+      </c>
+      <c r="D22" t="n">
+        <v>9771</v>
+      </c>
+      <c r="E22" t="n">
+        <v>48752</v>
+      </c>
+      <c r="F22" t="n">
+        <v>34903</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Item 22</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>12030</v>
+      </c>
+      <c r="D23" t="n">
+        <v>38890</v>
+      </c>
+      <c r="E23" t="n">
+        <v>5763</v>
+      </c>
+      <c r="F23" t="n">
+        <v>27270</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Item 23</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>11058</v>
+      </c>
+      <c r="D24" t="n">
+        <v>41419</v>
+      </c>
+      <c r="E24" t="n">
+        <v>39026</v>
+      </c>
+      <c r="F24" t="n">
+        <v>43984</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Item 24</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>38866</v>
+      </c>
+      <c r="D25" t="n">
+        <v>7769</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2748</v>
+      </c>
+      <c r="F25" t="n">
+        <v>26481</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Item 25</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>26603</v>
+      </c>
+      <c r="D26" t="n">
+        <v>28033</v>
+      </c>
+      <c r="E26" t="n">
+        <v>35542</v>
+      </c>
+      <c r="F26" t="n">
+        <v>8724</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Item 26</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>43146</v>
+      </c>
+      <c r="D27" t="n">
+        <v>15912</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9315</v>
+      </c>
+      <c r="F27" t="n">
+        <v>20419</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Item 27</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>21786</v>
+      </c>
+      <c r="D28" t="n">
+        <v>20636</v>
+      </c>
+      <c r="E28" t="n">
+        <v>49244</v>
+      </c>
+      <c r="F28" t="n">
+        <v>12281</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Item 28</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>6998</v>
+      </c>
+      <c r="D29" t="n">
+        <v>6211</v>
+      </c>
+      <c r="E29" t="n">
+        <v>23223</v>
+      </c>
+      <c r="F29" t="n">
+        <v>3037</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Item 29</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>49536</v>
+      </c>
+      <c r="D30" t="n">
+        <v>27387</v>
+      </c>
+      <c r="E30" t="n">
+        <v>14760</v>
+      </c>
+      <c r="F30" t="n">
+        <v>31164</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Item 30</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2503</v>
+      </c>
+      <c r="D31" t="n">
+        <v>40940</v>
+      </c>
+      <c r="E31" t="n">
+        <v>26190</v>
+      </c>
+      <c r="F31" t="n">
+        <v>47912</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Item 31</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>12938</v>
+      </c>
+      <c r="D32" t="n">
+        <v>26879</v>
+      </c>
+      <c r="E32" t="n">
+        <v>28610</v>
+      </c>
+      <c r="F32" t="n">
+        <v>28363</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Item 32</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>26547</v>
+      </c>
+      <c r="D33" t="n">
+        <v>40379</v>
+      </c>
+      <c r="E33" t="n">
+        <v>23501</v>
+      </c>
+      <c r="F33" t="n">
+        <v>23114</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Item 33</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>13120</v>
+      </c>
+      <c r="D34" t="n">
+        <v>44591</v>
+      </c>
+      <c r="E34" t="n">
+        <v>37393</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9445</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Item 34</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>5993</v>
+      </c>
+      <c r="D35" t="n">
+        <v>22152</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9213</v>
+      </c>
+      <c r="F35" t="n">
+        <v>29952</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Item 35</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>6939</v>
+      </c>
+      <c r="D36" t="n">
+        <v>48569</v>
+      </c>
+      <c r="E36" t="n">
+        <v>2741</v>
+      </c>
+      <c r="F36" t="n">
+        <v>26795</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Item 36</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>30418</v>
+      </c>
+      <c r="D37" t="n">
+        <v>5326</v>
+      </c>
+      <c r="E37" t="n">
+        <v>10564</v>
+      </c>
+      <c r="F37" t="n">
+        <v>47165</v>
       </c>
     </row>
   </sheetData>
